--- a/测试单-电子书_txt-word_170418.xlsx
+++ b/测试单-电子书_txt-word_170418.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="1040">
   <si>
     <t>编号</t>
   </si>
@@ -6800,6 +6800,14 @@
   </si>
   <si>
     <t>暂遗留，待解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9590,7 +9598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10689,6 +10697,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="663">
@@ -11356,12 +11367,7 @@
     <cellStyle name="常规 9 4" xfId="367"/>
     <cellStyle name="常规 9 4 2" xfId="641"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -12406,10 +12412,10 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="M329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J324" sqref="J324"/>
+      <selection pane="bottomRight" activeCell="R345" sqref="R345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12430,7 +12436,7 @@
     <col min="14" max="14" width="5.125" style="335" customWidth="1"/>
     <col min="15" max="15" width="9" style="335"/>
     <col min="16" max="16" width="35.75" style="335" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="335" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="335" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="335"/>
   </cols>
   <sheetData>
@@ -26948,11 +26954,17 @@
       <c r="K345" s="286"/>
       <c r="L345" s="286"/>
       <c r="M345" s="286"/>
-      <c r="N345" s="286"/>
+      <c r="N345" s="286" t="s">
+        <v>1038</v>
+      </c>
       <c r="O345" s="286"/>
       <c r="P345" s="286"/>
-      <c r="Q345" s="286"/>
-      <c r="R345" s="286"/>
+      <c r="Q345" s="362">
+        <v>42844</v>
+      </c>
+      <c r="R345" s="286" t="s">
+        <v>1039</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA345">
@@ -26969,7 +26981,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J321 J323:J324 J1:J79 J341:J1048576 J332:J338 J329 J81:J319">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28321,7 +28333,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31592,7 +31604,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J40">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32048,22 +32060,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I11)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_170418.xlsx
+++ b/测试单-电子书_txt-word_170418.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="1041">
   <si>
     <t>编号</t>
   </si>
@@ -6808,6 +6808,10 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12415,7 +12419,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="M329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R345" sqref="R345"/>
+      <selection pane="bottomRight" activeCell="Q344" sqref="Q344:R344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26916,11 +26920,17 @@
       <c r="K344" s="286"/>
       <c r="L344" s="286"/>
       <c r="M344" s="286"/>
-      <c r="N344" s="286"/>
+      <c r="N344" s="286" t="s">
+        <v>1040</v>
+      </c>
       <c r="O344" s="286"/>
       <c r="P344" s="286"/>
-      <c r="Q344" s="286"/>
-      <c r="R344" s="286"/>
+      <c r="Q344" s="362">
+        <v>42844</v>
+      </c>
+      <c r="R344" s="286" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="345" spans="1:18" ht="27">
       <c r="A345" s="335">

--- a/测试单-电子书_txt-word_170418.xlsx
+++ b/测试单-电子书_txt-word_170418.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1041">
   <si>
     <t>编号</t>
   </si>
@@ -12419,7 +12419,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="M329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q344" sqref="Q344:R344"/>
+      <selection pane="bottomRight" activeCell="Q343" sqref="Q343:R343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26884,11 +26884,18 @@
       <c r="I343" s="329"/>
       <c r="J343" s="329"/>
       <c r="M343" s="329"/>
-      <c r="N343" s="329"/>
+      <c r="N343" s="286" t="s">
+        <v>1038</v>
+      </c>
       <c r="P343" s="329" t="s">
         <v>1014</v>
       </c>
-      <c r="Q343" s="329"/>
+      <c r="Q343" s="362">
+        <v>42844</v>
+      </c>
+      <c r="R343" s="286" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="344" spans="1:18" ht="27">
       <c r="A344" s="335">

--- a/测试单-电子书_txt-word_170418.xlsx
+++ b/测试单-电子书_txt-word_170418.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1041">
   <si>
     <t>编号</t>
   </si>
@@ -5860,16 +5860,10 @@
     <t>无法复现，我这边可以啊。</t>
   </si>
   <si>
-    <t>背景音乐选择界面的确有此问题，已修改。背景音强度界面没有此问题啊？</t>
-  </si>
-  <si>
     <t>已修改。</t>
   </si>
   <si>
     <t>后鼎说他已实现了。</t>
-  </si>
-  <si>
-    <t>需要后鼎处理。</t>
   </si>
   <si>
     <t>浏览卡内文件列表时，拔出卡。然后在文件夹上按OK，提示“无文件”。=》同在文件上按OK一致处理，改为“文件不存在”？待定。【3月29日注】暂不修改，结束</t>
@@ -6812,6 +6806,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要后鼎处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要后鼎处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12280,7 +12282,7 @@
         <v>42833</v>
       </c>
       <c r="F33" s="221" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -12310,7 +12312,7 @@
     <row r="39" spans="2:6" ht="229.5">
       <c r="E39" s="199"/>
       <c r="F39" s="322" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="40" spans="2:6" s="199" customFormat="1">
@@ -12416,10 +12418,10 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="M329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q343" sqref="Q343:R343"/>
+      <selection pane="bottomRight" activeCell="N337" sqref="N337:P337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12876,10 +12878,10 @@
         <v>42555</v>
       </c>
       <c r="G11" s="296" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H11" s="297" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I11" s="270" t="s">
         <v>337</v>
@@ -13164,7 +13166,7 @@
         <v>406</v>
       </c>
       <c r="H18" s="328" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I18" s="329"/>
       <c r="J18" s="329" t="s">
@@ -13414,7 +13416,7 @@
         <v>407</v>
       </c>
       <c r="H24" s="328" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I24" s="329"/>
       <c r="J24" s="329" t="s">
@@ -13986,7 +13988,7 @@
         <v>408</v>
       </c>
       <c r="H38" s="328" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J38" s="329" t="s">
         <v>179</v>
@@ -14193,10 +14195,10 @@
         <v>42555</v>
       </c>
       <c r="G43" s="270" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H43" s="336" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I43" s="329" t="s">
         <v>134</v>
@@ -14277,7 +14279,7 @@
         <v>42555</v>
       </c>
       <c r="G45" s="270" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H45" s="328" t="s">
         <v>654</v>
@@ -14396,10 +14398,10 @@
         <v>42558</v>
       </c>
       <c r="G48" s="270" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H48" s="328" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I48" s="329" t="s">
         <v>134</v>
@@ -14564,11 +14566,11 @@
         <v>639</v>
       </c>
       <c r="H52" s="328" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I52" s="329"/>
       <c r="J52" s="335" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L52" s="331">
         <v>42651</v>
@@ -14811,10 +14813,10 @@
         <v>42612</v>
       </c>
       <c r="G58" s="270" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H58" s="328" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I58" s="329"/>
       <c r="J58" s="329" t="s">
@@ -14896,10 +14898,10 @@
         <v>409</v>
       </c>
       <c r="H60" s="328" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J60" s="335" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L60" s="331">
         <v>42822</v>
@@ -14935,14 +14937,14 @@
         <v>42612</v>
       </c>
       <c r="G61" s="270" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H61" s="328" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I61" s="329"/>
       <c r="J61" s="329" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="N61" s="329" t="s">
         <v>37</v>
@@ -14975,11 +14977,11 @@
         <v>410</v>
       </c>
       <c r="H62" s="328" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I62" s="329"/>
       <c r="J62" s="335" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L62" s="331">
         <v>42822</v>
@@ -15061,13 +15063,13 @@
         <v>410</v>
       </c>
       <c r="H64" s="328" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I64" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J64" s="335" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L64" s="331">
         <v>42822</v>
@@ -15189,7 +15191,7 @@
         <v>42612</v>
       </c>
       <c r="G67" s="270" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H67" s="328" t="s">
         <v>666</v>
@@ -15754,13 +15756,13 @@
         <v>298</v>
       </c>
       <c r="H80" s="336" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I80" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J80" s="329" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L80" s="331">
         <v>42822</v>
@@ -15837,13 +15839,13 @@
         <v>670</v>
       </c>
       <c r="H82" s="328" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I82" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J82" s="329" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L82" s="331">
         <v>42656</v>
@@ -15963,13 +15965,13 @@
         <v>42616</v>
       </c>
       <c r="G85" s="270" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H85" s="328" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I85" s="329" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J85" s="329" t="s">
         <v>649</v>
@@ -16176,7 +16178,7 @@
       </c>
       <c r="I90" s="329"/>
       <c r="J90" s="329" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L90" s="331">
         <v>42634</v>
@@ -16217,7 +16219,7 @@
       </c>
       <c r="I91" s="329"/>
       <c r="J91" s="329" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L91" s="331">
         <v>42634</v>
@@ -16258,7 +16260,7 @@
       </c>
       <c r="I92" s="329"/>
       <c r="J92" s="329" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L92" s="331">
         <v>42634</v>
@@ -16299,7 +16301,7 @@
       </c>
       <c r="I93" s="329"/>
       <c r="J93" s="329" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L93" s="331">
         <v>42634</v>
@@ -16340,7 +16342,7 @@
       </c>
       <c r="I94" s="329"/>
       <c r="J94" s="329" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L94" s="331">
         <v>42634</v>
@@ -16962,16 +16964,16 @@
         <v>42616</v>
       </c>
       <c r="G109" s="270" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H109" s="328" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I109" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J109" s="329" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L109" s="331">
         <v>42634</v>
@@ -17311,7 +17313,7 @@
         <v>638</v>
       </c>
       <c r="H117" s="328" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I117" s="329"/>
       <c r="J117" s="335" t="s">
@@ -17513,14 +17515,14 @@
         <v>42625</v>
       </c>
       <c r="G122" s="270" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H122" s="336" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I122" s="329"/>
       <c r="J122" s="329" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L122" s="331">
         <v>42632</v>
@@ -18158,7 +18160,7 @@
         <v>42630</v>
       </c>
       <c r="G137" s="270" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H137" s="328" t="s">
         <v>680</v>
@@ -18446,7 +18448,7 @@
         <v>42633</v>
       </c>
       <c r="G144" s="270" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H144" s="334" t="s">
         <v>681</v>
@@ -18478,10 +18480,10 @@
         <v>42633</v>
       </c>
       <c r="G145" s="270" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H145" s="334" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="J145" s="335" t="s">
         <v>175</v>
@@ -18808,13 +18810,13 @@
         <v>686</v>
       </c>
       <c r="H153" s="328" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I153" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J153" s="329" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="L153" s="331">
         <v>42666</v>
@@ -19076,7 +19078,7 @@
         <v>134</v>
       </c>
       <c r="J159" s="329" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="L159" s="331">
         <v>42643</v>
@@ -19584,7 +19586,7 @@
         <v>132</v>
       </c>
       <c r="H171" s="337" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I171" s="329"/>
       <c r="J171" s="335" t="s">
@@ -20767,7 +20769,7 @@
         <v>134</v>
       </c>
       <c r="J198" s="329" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="L198" s="331">
         <v>42651</v>
@@ -20854,7 +20856,7 @@
         <v>695</v>
       </c>
       <c r="I200" s="329" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J200" s="335" t="s">
         <v>649</v>
@@ -20940,7 +20942,7 @@
         <v>640</v>
       </c>
       <c r="H202" s="337" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I202" s="329"/>
       <c r="J202" s="335" t="s">
@@ -21152,7 +21154,7 @@
       </c>
       <c r="I207" s="329"/>
       <c r="J207" s="329" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="L207" s="331">
         <v>42666</v>
@@ -21421,7 +21423,7 @@
         <v>134</v>
       </c>
       <c r="J213" s="329" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K213" s="343"/>
       <c r="L213" s="347">
@@ -21503,16 +21505,16 @@
         <v>42653</v>
       </c>
       <c r="G215" s="270" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H215" s="277" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I215" s="329" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J215" s="324" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="K215" s="348"/>
       <c r="L215" s="348"/>
@@ -22227,7 +22229,7 @@
         <v>134</v>
       </c>
       <c r="J231" s="335" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="L231" s="331">
         <v>42666</v>
@@ -22262,7 +22264,7 @@
         <v>416</v>
       </c>
       <c r="H232" s="337" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I232" s="329"/>
       <c r="J232" s="335" t="s">
@@ -22853,7 +22855,7 @@
         <v>417</v>
       </c>
       <c r="H246" s="337" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I246" s="329"/>
       <c r="J246" s="335" t="s">
@@ -23024,7 +23026,7 @@
         <v>642</v>
       </c>
       <c r="H250" s="334" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J250" s="335" t="s">
         <v>411</v>
@@ -23147,7 +23149,7 @@
         <v>42669</v>
       </c>
       <c r="G253" s="270" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H253" s="334" t="s">
         <v>273</v>
@@ -23464,7 +23466,7 @@
         <v>42675</v>
       </c>
       <c r="G260" s="270" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H260" s="334" t="s">
         <v>272</v>
@@ -23594,7 +23596,7 @@
         <v>274</v>
       </c>
       <c r="H263" s="328" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J263" s="335" t="s">
         <v>411</v>
@@ -24114,7 +24116,7 @@
         <v>419</v>
       </c>
       <c r="H275" s="334" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I275" s="335" t="s">
         <v>420</v>
@@ -24712,13 +24714,13 @@
         <v>421</v>
       </c>
       <c r="H289" s="334" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I289" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J289" s="335" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N289" s="346"/>
       <c r="O289" s="346"/>
@@ -24747,13 +24749,13 @@
         <v>422</v>
       </c>
       <c r="H290" s="334" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I290" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J290" s="335" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N290" s="346"/>
       <c r="O290" s="346"/>
@@ -24874,13 +24876,13 @@
         <v>723</v>
       </c>
       <c r="H293" s="334" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I293" s="335" t="s">
         <v>722</v>
       </c>
       <c r="J293" s="335" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="L293" s="331">
         <v>42754</v>
@@ -25052,7 +25054,7 @@
         <v>423</v>
       </c>
       <c r="H297" s="288" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I297" s="287" t="s">
         <v>424</v>
@@ -25091,10 +25093,10 @@
         <v>392</v>
       </c>
       <c r="H298" s="333" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J298" s="324" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L298" s="330">
         <v>42741</v>
@@ -25331,7 +25333,7 @@
         <v>839</v>
       </c>
       <c r="H304" s="334" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J304" s="335" t="s">
         <v>626</v>
@@ -25536,13 +25538,13 @@
         <v>617</v>
       </c>
       <c r="H309" s="332" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I309" s="335" t="s">
         <v>620</v>
       </c>
       <c r="J309" s="324" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L309" s="331">
         <v>42823</v>
@@ -25672,10 +25674,10 @@
         <v>835</v>
       </c>
       <c r="H312" s="337" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J312" s="335" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L312" s="331">
         <v>42824</v>
@@ -25683,7 +25685,7 @@
       <c r="N312" s="322"/>
       <c r="O312" s="322"/>
       <c r="P312" s="322" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="Q312" s="322"/>
       <c r="R312" s="322"/>
@@ -26013,13 +26015,13 @@
         <v>881</v>
       </c>
       <c r="H320" s="311" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I320" s="310" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J320" s="335" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="L320" s="331">
         <v>42797</v>
@@ -26103,7 +26105,7 @@
         <v>891</v>
       </c>
       <c r="H322" s="334" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I322" s="310" t="s">
         <v>134</v>
@@ -26184,7 +26186,7 @@
         <v>890</v>
       </c>
       <c r="H324" s="321" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="325" spans="1:19" ht="54" hidden="1">
@@ -26195,7 +26197,7 @@
         <v>17</v>
       </c>
       <c r="C325" s="329" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D325" s="331">
         <v>42817</v>
@@ -26207,20 +26209,20 @@
         <v>42817</v>
       </c>
       <c r="G325" s="270" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H325" s="334" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J325" s="335" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L325" s="331">
         <v>42826</v>
       </c>
       <c r="M325" s="331"/>
       <c r="P325" s="335" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="S325" s="350"/>
     </row>
@@ -26247,7 +26249,7 @@
         <v>915</v>
       </c>
       <c r="H326" s="334" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I326" s="335" t="s">
         <v>823</v>
@@ -26364,26 +26366,30 @@
         <v>42819</v>
       </c>
       <c r="G329" s="270" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H329" s="334" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I329" s="310"/>
       <c r="J329" s="335" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L329" s="331"/>
       <c r="M329" s="330"/>
-      <c r="N329" s="324" t="s">
-        <v>37</v>
+      <c r="N329" s="335" t="s">
+        <v>112</v>
       </c>
       <c r="O329" s="324"/>
       <c r="P329" s="335" t="s">
-        <v>928</v>
-      </c>
-      <c r="Q329" s="324"/>
-      <c r="R329" s="324"/>
+        <v>1040</v>
+      </c>
+      <c r="Q329" s="362">
+        <v>42844</v>
+      </c>
+      <c r="R329" s="286" t="s">
+        <v>825</v>
+      </c>
       <c r="S329" s="322"/>
     </row>
     <row r="330" spans="1:19" ht="27" hidden="1">
@@ -26424,7 +26430,7 @@
       </c>
       <c r="O330" s="324"/>
       <c r="P330" s="335" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="Q330" s="324"/>
       <c r="R330" s="324"/>
@@ -26468,7 +26474,7 @@
       </c>
       <c r="O331" s="324"/>
       <c r="P331" s="335" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Q331" s="324"/>
       <c r="R331" s="324"/>
@@ -26564,22 +26570,28 @@
         <v>42819</v>
       </c>
       <c r="G334" s="270" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H334" s="178" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I334" s="335" t="s">
         <v>134</v>
       </c>
       <c r="J334" s="335" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="N334" s="335" t="s">
         <v>112</v>
       </c>
       <c r="P334" s="335" t="s">
-        <v>931</v>
+        <v>1039</v>
+      </c>
+      <c r="Q334" s="362">
+        <v>42844</v>
+      </c>
+      <c r="R334" s="286" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="335" spans="1:19" hidden="1">
@@ -26631,14 +26643,14 @@
         <v>42823</v>
       </c>
       <c r="G336" s="323" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H336" s="178" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I336" s="310"/>
       <c r="J336" s="335" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L336" s="331">
         <v>42824</v>
@@ -26667,10 +26679,10 @@
         <v>42823</v>
       </c>
       <c r="G337" s="315" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H337" s="197" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I337" s="310" t="s">
         <v>919</v>
@@ -26680,7 +26692,7 @@
         <v>112</v>
       </c>
       <c r="P337" s="335" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="338" spans="1:18" ht="54" hidden="1">
@@ -26703,14 +26715,14 @@
         <v>42823</v>
       </c>
       <c r="G338" s="323" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H338" s="178" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I338" s="310"/>
       <c r="J338" s="335" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L338" s="331">
         <v>42824</v>
@@ -26736,13 +26748,13 @@
         <v>42823</v>
       </c>
       <c r="G339" s="323" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H339" s="322" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J339" s="335" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L339" s="331">
         <v>42826</v>
@@ -26768,13 +26780,13 @@
         <v>42823</v>
       </c>
       <c r="G340" s="359" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H340" s="322" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J340" s="357" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L340" s="355">
         <v>42826</v>
@@ -26788,7 +26800,7 @@
         <v>17</v>
       </c>
       <c r="C341" s="329" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D341" s="331">
         <v>42833</v>
@@ -26800,16 +26812,16 @@
         <v>42834</v>
       </c>
       <c r="G341" s="270" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H341" s="328" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I341" s="310" t="s">
         <v>87</v>
       </c>
       <c r="J341" s="329" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L341" s="331">
         <v>42842</v>
@@ -26817,7 +26829,7 @@
       <c r="M341" s="329"/>
       <c r="N341" s="329"/>
       <c r="P341" s="360" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="Q341" s="329"/>
       <c r="R341" s="286"/>
@@ -26827,10 +26839,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="329" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C342" s="329" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D342" s="331">
         <v>42833</v>
@@ -26842,17 +26854,17 @@
         <v>42834</v>
       </c>
       <c r="G342" s="286" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H342" s="328" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I342" s="329"/>
       <c r="J342" s="329"/>
       <c r="M342" s="329"/>
       <c r="N342" s="329"/>
       <c r="P342" s="329" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="Q342" s="329"/>
     </row>
@@ -26861,10 +26873,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="329" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C343" s="329" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D343" s="331">
         <v>42833</v>
@@ -26876,19 +26888,19 @@
         <v>42834</v>
       </c>
       <c r="G343" s="280" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H343" s="336" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I343" s="329"/>
       <c r="J343" s="329"/>
       <c r="M343" s="329"/>
       <c r="N343" s="286" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="P343" s="329" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="Q343" s="362">
         <v>42844</v>
@@ -26902,10 +26914,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="329" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C344" s="329" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D344" s="331">
         <v>42833</v>
@@ -26917,10 +26929,10 @@
         <v>42836</v>
       </c>
       <c r="G344" s="286" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H344" s="252" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I344" s="286"/>
       <c r="J344" s="286"/>
@@ -26928,7 +26940,7 @@
       <c r="L344" s="286"/>
       <c r="M344" s="286"/>
       <c r="N344" s="286" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="O344" s="286"/>
       <c r="P344" s="286"/>
@@ -26947,7 +26959,7 @@
         <v>17</v>
       </c>
       <c r="C345" s="329" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D345" s="331">
         <v>42833</v>
@@ -26959,10 +26971,10 @@
         <v>42836</v>
       </c>
       <c r="G345" s="287" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H345" s="361" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I345" s="310" t="s">
         <v>87</v>
@@ -26972,7 +26984,7 @@
       <c r="L345" s="286"/>
       <c r="M345" s="286"/>
       <c r="N345" s="286" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="O345" s="286"/>
       <c r="P345" s="286"/>
@@ -26980,7 +26992,7 @@
         <v>42844</v>
       </c>
       <c r="R345" s="286" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/测试单-电子书_txt-word_170418.xlsx
+++ b/测试单-电子书_txt-word_170418.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="1044">
   <si>
     <t>编号</t>
   </si>
@@ -6814,6 +6814,18 @@
   </si>
   <si>
     <t>需要后鼎处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为返回时自动全文朗读。跟从功能菜单返回一样。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12418,10 +12430,10 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J289" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N337" sqref="N337:P337"/>
+      <selection pane="bottomRight" activeCell="P324" sqref="P324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26187,6 +26199,18 @@
       </c>
       <c r="H324" s="321" t="s">
         <v>1002</v>
+      </c>
+      <c r="N324" s="335" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P324" s="335" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q324" s="270">
+        <v>42845</v>
+      </c>
+      <c r="R324" s="335" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="325" spans="1:19" ht="54" hidden="1">

--- a/测试单-电子书_txt-word_170418.xlsx
+++ b/测试单-电子书_txt-word_170418.xlsx
@@ -6085,10 +6085,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此种情况TTS收不到结束回调，需要后鼎看看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【全文朗读】【逐段】有些符号，如引号，符号未反显。
 （【样例】：TestBig5繁英上帝的语言.txt，第1段最后一句，"We may nerver…"）
 【8月28日版】存在【9月19日版】存在【9月21日版】存在，影响不大，暂不处理。</t>
@@ -6826,6 +6822,10 @@
   </si>
   <si>
     <t>修改为返回时自动全文朗读。跟从功能菜单返回一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12294,7 +12294,7 @@
         <v>42833</v>
       </c>
       <c r="F33" s="221" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -12324,7 +12324,7 @@
     <row r="39" spans="2:6" ht="229.5">
       <c r="E39" s="199"/>
       <c r="F39" s="322" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="40" spans="2:6" s="199" customFormat="1">
@@ -12430,10 +12430,10 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J289" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="M290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P324" sqref="P324"/>
+      <selection pane="bottomRight" activeCell="Q337" sqref="Q337:R337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12890,10 +12890,10 @@
         <v>42555</v>
       </c>
       <c r="G11" s="296" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H11" s="297" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I11" s="270" t="s">
         <v>337</v>
@@ -13178,7 +13178,7 @@
         <v>406</v>
       </c>
       <c r="H18" s="328" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I18" s="329"/>
       <c r="J18" s="329" t="s">
@@ -13428,7 +13428,7 @@
         <v>407</v>
       </c>
       <c r="H24" s="328" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I24" s="329"/>
       <c r="J24" s="329" t="s">
@@ -14000,7 +14000,7 @@
         <v>408</v>
       </c>
       <c r="H38" s="328" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J38" s="329" t="s">
         <v>179</v>
@@ -14207,10 +14207,10 @@
         <v>42555</v>
       </c>
       <c r="G43" s="270" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H43" s="336" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I43" s="329" t="s">
         <v>134</v>
@@ -14291,7 +14291,7 @@
         <v>42555</v>
       </c>
       <c r="G45" s="270" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H45" s="328" t="s">
         <v>654</v>
@@ -14410,10 +14410,10 @@
         <v>42558</v>
       </c>
       <c r="G48" s="270" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H48" s="328" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I48" s="329" t="s">
         <v>134</v>
@@ -14825,10 +14825,10 @@
         <v>42612</v>
       </c>
       <c r="G58" s="270" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H58" s="328" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I58" s="329"/>
       <c r="J58" s="329" t="s">
@@ -15203,7 +15203,7 @@
         <v>42612</v>
       </c>
       <c r="G67" s="270" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H67" s="328" t="s">
         <v>666</v>
@@ -15851,13 +15851,13 @@
         <v>670</v>
       </c>
       <c r="H82" s="328" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I82" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J82" s="329" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L82" s="331">
         <v>42656</v>
@@ -15977,13 +15977,13 @@
         <v>42616</v>
       </c>
       <c r="G85" s="270" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H85" s="328" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I85" s="329" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J85" s="329" t="s">
         <v>649</v>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="I90" s="329"/>
       <c r="J90" s="329" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L90" s="331">
         <v>42634</v>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="I91" s="329"/>
       <c r="J91" s="329" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L91" s="331">
         <v>42634</v>
@@ -16272,7 +16272,7 @@
       </c>
       <c r="I92" s="329"/>
       <c r="J92" s="329" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L92" s="331">
         <v>42634</v>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="I93" s="329"/>
       <c r="J93" s="329" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L93" s="331">
         <v>42634</v>
@@ -16354,7 +16354,7 @@
       </c>
       <c r="I94" s="329"/>
       <c r="J94" s="329" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L94" s="331">
         <v>42634</v>
@@ -16976,16 +16976,16 @@
         <v>42616</v>
       </c>
       <c r="G109" s="270" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H109" s="328" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I109" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J109" s="329" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L109" s="331">
         <v>42634</v>
@@ -17325,7 +17325,7 @@
         <v>638</v>
       </c>
       <c r="H117" s="328" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I117" s="329"/>
       <c r="J117" s="335" t="s">
@@ -17527,14 +17527,14 @@
         <v>42625</v>
       </c>
       <c r="G122" s="270" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H122" s="336" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I122" s="329"/>
       <c r="J122" s="329" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L122" s="331">
         <v>42632</v>
@@ -18172,7 +18172,7 @@
         <v>42630</v>
       </c>
       <c r="G137" s="270" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H137" s="328" t="s">
         <v>680</v>
@@ -18460,7 +18460,7 @@
         <v>42633</v>
       </c>
       <c r="G144" s="270" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H144" s="334" t="s">
         <v>681</v>
@@ -18492,10 +18492,10 @@
         <v>42633</v>
       </c>
       <c r="G145" s="270" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H145" s="334" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J145" s="335" t="s">
         <v>175</v>
@@ -18822,13 +18822,13 @@
         <v>686</v>
       </c>
       <c r="H153" s="328" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I153" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J153" s="329" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L153" s="331">
         <v>42666</v>
@@ -19090,7 +19090,7 @@
         <v>134</v>
       </c>
       <c r="J159" s="329" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L159" s="331">
         <v>42643</v>
@@ -19598,7 +19598,7 @@
         <v>132</v>
       </c>
       <c r="H171" s="337" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I171" s="329"/>
       <c r="J171" s="335" t="s">
@@ -20781,7 +20781,7 @@
         <v>134</v>
       </c>
       <c r="J198" s="329" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L198" s="331">
         <v>42651</v>
@@ -20868,7 +20868,7 @@
         <v>695</v>
       </c>
       <c r="I200" s="329" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J200" s="335" t="s">
         <v>649</v>
@@ -20954,7 +20954,7 @@
         <v>640</v>
       </c>
       <c r="H202" s="337" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I202" s="329"/>
       <c r="J202" s="335" t="s">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="I207" s="329"/>
       <c r="J207" s="329" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L207" s="331">
         <v>42666</v>
@@ -21435,7 +21435,7 @@
         <v>134</v>
       </c>
       <c r="J213" s="329" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K213" s="343"/>
       <c r="L213" s="347">
@@ -21517,13 +21517,13 @@
         <v>42653</v>
       </c>
       <c r="G215" s="270" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H215" s="277" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I215" s="329" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J215" s="324" t="s">
         <v>946</v>
@@ -22241,7 +22241,7 @@
         <v>134</v>
       </c>
       <c r="J231" s="335" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L231" s="331">
         <v>42666</v>
@@ -22276,7 +22276,7 @@
         <v>416</v>
       </c>
       <c r="H232" s="337" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I232" s="329"/>
       <c r="J232" s="335" t="s">
@@ -22867,7 +22867,7 @@
         <v>417</v>
       </c>
       <c r="H246" s="337" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I246" s="329"/>
       <c r="J246" s="335" t="s">
@@ -23038,7 +23038,7 @@
         <v>642</v>
       </c>
       <c r="H250" s="334" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J250" s="335" t="s">
         <v>411</v>
@@ -23161,7 +23161,7 @@
         <v>42669</v>
       </c>
       <c r="G253" s="270" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H253" s="334" t="s">
         <v>273</v>
@@ -23478,7 +23478,7 @@
         <v>42675</v>
       </c>
       <c r="G260" s="270" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H260" s="334" t="s">
         <v>272</v>
@@ -23608,7 +23608,7 @@
         <v>274</v>
       </c>
       <c r="H263" s="328" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J263" s="335" t="s">
         <v>411</v>
@@ -24128,7 +24128,7 @@
         <v>419</v>
       </c>
       <c r="H275" s="334" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I275" s="335" t="s">
         <v>420</v>
@@ -24726,13 +24726,13 @@
         <v>421</v>
       </c>
       <c r="H289" s="334" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I289" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J289" s="335" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="N289" s="346"/>
       <c r="O289" s="346"/>
@@ -24761,13 +24761,13 @@
         <v>422</v>
       </c>
       <c r="H290" s="334" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I290" s="329" t="s">
         <v>134</v>
       </c>
       <c r="J290" s="335" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="N290" s="346"/>
       <c r="O290" s="346"/>
@@ -24888,13 +24888,13 @@
         <v>723</v>
       </c>
       <c r="H293" s="334" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I293" s="335" t="s">
         <v>722</v>
       </c>
       <c r="J293" s="335" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L293" s="331">
         <v>42754</v>
@@ -25066,7 +25066,7 @@
         <v>423</v>
       </c>
       <c r="H297" s="288" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I297" s="287" t="s">
         <v>424</v>
@@ -25345,7 +25345,7 @@
         <v>839</v>
       </c>
       <c r="H304" s="334" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J304" s="335" t="s">
         <v>626</v>
@@ -25689,7 +25689,7 @@
         <v>941</v>
       </c>
       <c r="J312" s="335" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L312" s="331">
         <v>42824</v>
@@ -26027,13 +26027,13 @@
         <v>881</v>
       </c>
       <c r="H320" s="311" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I320" s="310" t="s">
+        <v>971</v>
+      </c>
+      <c r="J320" s="335" t="s">
         <v>972</v>
-      </c>
-      <c r="J320" s="335" t="s">
-        <v>973</v>
       </c>
       <c r="L320" s="331">
         <v>42797</v>
@@ -26198,19 +26198,19 @@
         <v>890</v>
       </c>
       <c r="H324" s="321" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="N324" s="335" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="P324" s="335" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q324" s="270">
         <v>42845</v>
       </c>
       <c r="R324" s="335" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="325" spans="1:19" ht="54" hidden="1">
@@ -26221,7 +26221,7 @@
         <v>17</v>
       </c>
       <c r="C325" s="329" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D325" s="331">
         <v>42817</v>
@@ -26233,20 +26233,20 @@
         <v>42817</v>
       </c>
       <c r="G325" s="270" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H325" s="334" t="s">
         <v>1018</v>
       </c>
-      <c r="H325" s="334" t="s">
-        <v>1019</v>
-      </c>
       <c r="J325" s="335" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L325" s="331">
         <v>42826</v>
       </c>
       <c r="M325" s="331"/>
       <c r="P325" s="335" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="S325" s="350"/>
     </row>
@@ -26273,7 +26273,7 @@
         <v>915</v>
       </c>
       <c r="H326" s="334" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I326" s="335" t="s">
         <v>823</v>
@@ -26390,14 +26390,14 @@
         <v>42819</v>
       </c>
       <c r="G329" s="270" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H329" s="334" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I329" s="310"/>
       <c r="J329" s="335" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L329" s="331"/>
       <c r="M329" s="330"/>
@@ -26406,7 +26406,7 @@
       </c>
       <c r="O329" s="324"/>
       <c r="P329" s="335" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Q329" s="362">
         <v>42844</v>
@@ -26594,22 +26594,22 @@
         <v>42819</v>
       </c>
       <c r="G334" s="270" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H334" s="178" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I334" s="335" t="s">
         <v>134</v>
       </c>
       <c r="J334" s="335" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="N334" s="335" t="s">
         <v>112</v>
       </c>
       <c r="P334" s="335" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q334" s="362">
         <v>42844</v>
@@ -26674,7 +26674,7 @@
       </c>
       <c r="I336" s="310"/>
       <c r="J336" s="335" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L336" s="331">
         <v>42824</v>
@@ -26706,17 +26706,20 @@
         <v>933</v>
       </c>
       <c r="H337" s="197" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I337" s="310" t="s">
         <v>919</v>
       </c>
       <c r="L337" s="331"/>
       <c r="N337" s="335" t="s">
-        <v>112</v>
-      </c>
-      <c r="P337" s="335" t="s">
-        <v>952</v>
+        <v>1043</v>
+      </c>
+      <c r="Q337" s="270">
+        <v>42845</v>
+      </c>
+      <c r="R337" s="335" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="338" spans="1:18" ht="54" hidden="1">
@@ -26742,11 +26745,11 @@
         <v>944</v>
       </c>
       <c r="H338" s="178" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I338" s="310"/>
       <c r="J338" s="335" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L338" s="331">
         <v>42824</v>
@@ -26778,7 +26781,7 @@
         <v>950</v>
       </c>
       <c r="J339" s="335" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L339" s="331">
         <v>42826</v>
@@ -26810,7 +26813,7 @@
         <v>945</v>
       </c>
       <c r="J340" s="357" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L340" s="355">
         <v>42826</v>
@@ -26824,7 +26827,7 @@
         <v>17</v>
       </c>
       <c r="C341" s="329" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D341" s="331">
         <v>42833</v>
@@ -26836,16 +26839,16 @@
         <v>42834</v>
       </c>
       <c r="G341" s="270" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H341" s="328" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I341" s="310" t="s">
         <v>87</v>
       </c>
       <c r="J341" s="329" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L341" s="331">
         <v>42842</v>
@@ -26853,7 +26856,7 @@
       <c r="M341" s="329"/>
       <c r="N341" s="329"/>
       <c r="P341" s="360" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q341" s="329"/>
       <c r="R341" s="286"/>
@@ -26863,10 +26866,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="329" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C342" s="329" t="s">
         <v>1006</v>
-      </c>
-      <c r="C342" s="329" t="s">
-        <v>1007</v>
       </c>
       <c r="D342" s="331">
         <v>42833</v>
@@ -26878,17 +26881,17 @@
         <v>42834</v>
       </c>
       <c r="G342" s="286" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H342" s="328" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I342" s="329"/>
       <c r="J342" s="329"/>
       <c r="M342" s="329"/>
       <c r="N342" s="329"/>
       <c r="P342" s="329" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q342" s="329"/>
     </row>
@@ -26897,10 +26900,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="329" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C343" s="329" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D343" s="331">
         <v>42833</v>
@@ -26912,19 +26915,19 @@
         <v>42834</v>
       </c>
       <c r="G343" s="280" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H343" s="336" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I343" s="329"/>
       <c r="J343" s="329"/>
       <c r="M343" s="329"/>
       <c r="N343" s="286" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="P343" s="329" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q343" s="362">
         <v>42844</v>
@@ -26938,10 +26941,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="329" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C344" s="329" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D344" s="331">
         <v>42833</v>
@@ -26953,10 +26956,10 @@
         <v>42836</v>
       </c>
       <c r="G344" s="286" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H344" s="252" t="s">
         <v>1013</v>
-      </c>
-      <c r="H344" s="252" t="s">
-        <v>1014</v>
       </c>
       <c r="I344" s="286"/>
       <c r="J344" s="286"/>
@@ -26964,7 +26967,7 @@
       <c r="L344" s="286"/>
       <c r="M344" s="286"/>
       <c r="N344" s="286" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O344" s="286"/>
       <c r="P344" s="286"/>
@@ -26983,7 +26986,7 @@
         <v>17</v>
       </c>
       <c r="C345" s="329" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D345" s="331">
         <v>42833</v>
@@ -26995,10 +26998,10 @@
         <v>42836</v>
       </c>
       <c r="G345" s="287" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H345" s="361" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I345" s="310" t="s">
         <v>87</v>
@@ -27008,7 +27011,7 @@
       <c r="L345" s="286"/>
       <c r="M345" s="286"/>
       <c r="N345" s="286" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O345" s="286"/>
       <c r="P345" s="286"/>
@@ -27016,7 +27019,7 @@
         <v>42844</v>
       </c>
       <c r="R345" s="286" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
